--- a/db/input_WR34.xlsx
+++ b/db/input_WR34.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Ch.Index</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Centre Fre.</t>
   </si>
   <si>
-    <t>BW</t>
-  </si>
-  <si>
     <t>ch1</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>27725 MHz</t>
   </si>
   <si>
-    <t>236 MHz</t>
-  </si>
-  <si>
     <t>ch2</t>
   </si>
   <si>
@@ -106,6 +100,25 @@
   </si>
   <si>
     <t>J2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>230 MHz</t>
+  </si>
+  <si>
+    <t>230 MHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>216 MHz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -515,7 +528,7 @@
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,119 +539,146 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/db/input_WR34.xlsx
+++ b/db/input_WR34.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Ch.Index</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>216 MHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>236 MHz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,21 +522,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,13 +547,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -556,13 +567,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -573,13 +587,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -590,13 +607,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -607,13 +627,16 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -624,13 +647,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -641,13 +667,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -658,13 +687,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -675,9 +707,12 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
